--- a/municipal_finance/fixtures/tests/update/item_schema.xlsx
+++ b/municipal_finance/fixtures/tests/update/item_schema.xlsx
@@ -8,72 +8,74 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="A7" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">A1 Schedule Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODES_CDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODES_CDE_DSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH FLOW FROM OPERATING ACTIVITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receipts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other revenue</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">MSCOA Account (version 6.8) linking to A1 schedule sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A1 Schedule Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A1 Schedule Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A1 schedule Code description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Revenue / Service charges - Electricity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
-    <font>
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ARIAL"/>
@@ -81,32 +83,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="ARIAL"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="ARIAL"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -116,17 +103,17 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5B65D"/>
         <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -170,37 +157,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -280,144 +255,126 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="33.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/municipal_finance/fixtures/tests/update/item_schema.xlsx
+++ b/municipal_finance/fixtures/tests/update/item_schema.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="A7" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t xml:space="preserve">MSCOA Account (version 6.8) linking to A1 schedule sheets</t>
   </si>
@@ -37,13 +37,19 @@
 A1 schedule Code description</t>
   </si>
   <si>
-    <t xml:space="preserve">A4</t>
+    <t xml:space="preserve">A7</t>
   </si>
   <si>
     <t xml:space="preserve">0300</t>
   </si>
   <si>
     <t xml:space="preserve">Exchange Revenue / Service charges - Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Revenue / New Item Code</t>
   </si>
 </sst>
 </file>
@@ -58,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -255,13 +262,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -363,6 +370,17 @@
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
